--- a/TSM.xlsx
+++ b/TSM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572B07F7-57CA-4374-A5EE-45A8B8A43488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D41611E-D0B9-4BFF-A09C-A328E7917E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{D45F948B-0237-4CD1-A538-BE8EB16D26F7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>TSMC</t>
   </si>
@@ -185,6 +185,42 @@
   <si>
     <t>FY24</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Q3 Guidance: 31.8 b. $ to 33.0</t>
+  </si>
+  <si>
+    <t>GM: 55.5%-57.5%, Operating Margin: 45.5% - 47.5%</t>
+  </si>
+  <si>
+    <t>5nm</t>
+  </si>
+  <si>
+    <t>3nm</t>
+  </si>
+  <si>
+    <t>7nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>HPC</t>
+  </si>
+  <si>
+    <t>Smarphones</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>DCE</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +261,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,7 +293,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -262,6 +307,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -598,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5707962-9660-4B8C-96C2-5E923C455073}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="4">
-        <v>1100</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -631,10 +680,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="5">
-        <v>25928.074000000001</v>
+        <v>25929</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -646,7 +695,7 @@
       </c>
       <c r="H4" s="5">
         <f>+H2*H3</f>
-        <v>28520881.400000002</v>
+        <v>29299770</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -657,11 +706,11 @@
         <v>6</v>
       </c>
       <c r="H5" s="5">
-        <f>1886781+280819</f>
-        <v>2167600</v>
+        <f>2364524+269905</f>
+        <v>2634429</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -669,11 +718,11 @@
         <v>7</v>
       </c>
       <c r="H6" s="5">
-        <f>58805+909704</f>
-        <v>968509</v>
+        <f>94214+848535</f>
+        <v>942749</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -682,7 +731,22 @@
       </c>
       <c r="H7" s="5">
         <f>+H4-H5+H6</f>
-        <v>27321790.400000002</v>
+        <v>27608090</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -695,13 +759,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6249646-B538-4C8E-8557-B9FADF837D81}">
-  <dimension ref="A1:AW189"/>
+  <dimension ref="A1:AW198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,6 +839,9 @@
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -784,7 +851,9 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="L3" s="8">
+        <v>224110.07999999999</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -824,31 +893,21 @@
       <c r="AW3" s="5"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
-        <v>546733</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9">
-        <v>592644</v>
-      </c>
-      <c r="H4" s="9">
-        <v>673510</v>
-      </c>
-      <c r="I4" s="9">
-        <v>759692</v>
-      </c>
-      <c r="J4" s="9">
-        <v>868461</v>
-      </c>
-      <c r="K4" s="9">
-        <v>839254</v>
-      </c>
-      <c r="L4" s="8"/>
+      <c r="B4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8">
+        <v>336165.12</v>
+      </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -889,30 +948,20 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="8">
-        <v>250090</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>278139</v>
-      </c>
-      <c r="H5" s="8">
-        <v>315385</v>
-      </c>
-      <c r="I5" s="8">
-        <v>320347</v>
-      </c>
-      <c r="J5" s="8">
-        <v>356082</v>
-      </c>
-      <c r="K5" s="8">
-        <v>345859</v>
-      </c>
-      <c r="L5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8">
+        <v>130730.88000000002</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -953,45 +1002,20 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="8">
-        <f t="shared" ref="C6:H6" si="0">+C4-C5</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>296643</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>314505</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" si="0"/>
-        <v>358125</v>
-      </c>
-      <c r="I6" s="8">
-        <f>+I4-I5</f>
-        <v>439345</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" ref="J6:K6" si="1">+J4-J5</f>
-        <v>512379</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" si="1"/>
-        <v>493395</v>
-      </c>
-      <c r="L6" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
+        <v>242785.92000000004</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -1032,30 +1056,20 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>51138</v>
-      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>46109</v>
-      </c>
-      <c r="H7" s="8">
-        <v>48058</v>
-      </c>
-      <c r="I7" s="8">
-        <v>52783</v>
-      </c>
-      <c r="J7" s="8">
-        <v>57232</v>
-      </c>
-      <c r="K7" s="8">
-        <v>56547</v>
-      </c>
-      <c r="L7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8">
+        <v>560275.19999999995</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -1096,30 +1110,20 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>17571</v>
-      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="8">
-        <v>19248</v>
-      </c>
-      <c r="H8" s="8">
-        <v>22238</v>
-      </c>
-      <c r="I8" s="8">
-        <v>26295</v>
-      </c>
-      <c r="J8" s="8">
-        <v>29108</v>
-      </c>
-      <c r="K8" s="8">
-        <v>28639</v>
-      </c>
-      <c r="L8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8">
+        <v>252123.84000000003</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -1160,30 +1164,20 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8">
-        <v>131</v>
-      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>-130</v>
-      </c>
-      <c r="H9" s="8">
-        <v>-1273</v>
-      </c>
-      <c r="I9" s="8">
-        <v>499</v>
-      </c>
-      <c r="J9" s="8">
-        <v>-326</v>
-      </c>
-      <c r="K9" s="8">
-        <v>-1128</v>
-      </c>
-      <c r="L9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8">
+        <v>46689.600000000006</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1224,45 +1218,20 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" ref="C10:G10" si="2">+C6-SUM(C7:C8)+C9</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="2"/>
-        <v>228065</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="2"/>
-        <v>249018</v>
-      </c>
-      <c r="H10" s="8">
-        <f>+H6-SUM(H7:H8)+H9</f>
-        <v>286556</v>
-      </c>
-      <c r="I10" s="8">
-        <f>+I6-SUM(I7:I8)+I9</f>
-        <v>360766</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" ref="J10:K10" si="3">+J6-SUM(J7:J8)+J9</f>
-        <v>425713</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" si="3"/>
-        <v>407081</v>
-      </c>
-      <c r="L10" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8">
+        <v>46689.600000000006</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -1303,30 +1272,20 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8">
-        <v>1167</v>
-      </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8">
-        <v>878</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1152</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1561</v>
-      </c>
-      <c r="J11" s="8">
-        <v>289</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1368</v>
-      </c>
-      <c r="L11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8">
+        <v>9337.92</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -1367,30 +1326,20 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8">
-        <v>12483</v>
-      </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="8">
-        <v>16661</v>
-      </c>
-      <c r="H12" s="8">
-        <v>18341</v>
-      </c>
-      <c r="I12" s="8">
-        <v>19966</v>
-      </c>
-      <c r="J12" s="8">
-        <v>21750</v>
-      </c>
-      <c r="K12" s="8">
-        <v>22182</v>
-      </c>
-      <c r="L12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8">
+        <v>18675.84</v>
+      </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -1430,31 +1379,33 @@
       <c r="AW12" s="5"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8">
-        <v>225</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8">
-        <v>-14</v>
-      </c>
-      <c r="H13" s="8">
-        <v>262</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1894</v>
-      </c>
-      <c r="J13" s="8">
-        <v>46</v>
-      </c>
-      <c r="K13" s="8">
-        <v>264</v>
-      </c>
-      <c r="L13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>546733</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
+        <v>592644</v>
+      </c>
+      <c r="H13" s="9">
+        <v>673510</v>
+      </c>
+      <c r="I13" s="9">
+        <v>759692</v>
+      </c>
+      <c r="J13" s="9">
+        <v>868461</v>
+      </c>
+      <c r="K13" s="9">
+        <v>839254</v>
+      </c>
+      <c r="L13" s="9">
+        <v>933792</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -1495,45 +1446,32 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" ref="C14:G14" si="4">+C10+SUM(C11:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="8">
-        <f t="shared" si="4"/>
-        <v>241940</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>250090</v>
+      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="8">
-        <f t="shared" si="4"/>
-        <v>266543</v>
+        <v>278139</v>
       </c>
       <c r="H14" s="8">
-        <f>+H10+SUM(H11:H13)</f>
-        <v>306311</v>
+        <v>315385</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" ref="I14:K14" si="5">+I10+SUM(I11:I13)</f>
-        <v>384187</v>
+        <v>320347</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="5"/>
-        <v>447798</v>
+        <v>356082</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="5"/>
-        <v>430895</v>
-      </c>
-      <c r="L14" s="8"/>
+        <v>345859</v>
+      </c>
+      <c r="L14" s="8">
+        <v>386423</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -1574,30 +1512,48 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" ref="C15:H15" si="0">+C13-C14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E15" s="8">
-        <v>31145</v>
-      </c>
-      <c r="F15" s="8"/>
+        <f t="shared" si="0"/>
+        <v>296643</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="8">
-        <v>41322</v>
+        <f t="shared" si="0"/>
+        <v>314505</v>
       </c>
       <c r="H15" s="8">
-        <v>58649</v>
+        <f t="shared" si="0"/>
+        <v>358125</v>
       </c>
       <c r="I15" s="8">
-        <v>59107</v>
+        <f>+I13-I14</f>
+        <v>439345</v>
       </c>
       <c r="J15" s="8">
-        <v>74329</v>
+        <f t="shared" ref="J15:L15" si="1">+J13-J14</f>
+        <v>512379</v>
       </c>
       <c r="K15" s="8">
-        <v>70162</v>
-      </c>
-      <c r="L15" s="8"/>
+        <f t="shared" si="1"/>
+        <v>493395</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="1"/>
+        <v>547369</v>
+      </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -1638,45 +1594,32 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" ref="C16:H16" si="6">+C14-C15</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="8">
-        <f t="shared" si="6"/>
-        <v>210795</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <v>51138</v>
+      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="8">
-        <f t="shared" si="6"/>
-        <v>225221</v>
+        <v>46109</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="6"/>
-        <v>247662</v>
+        <v>48058</v>
       </c>
       <c r="I16" s="8">
-        <f>+I14-I15</f>
-        <v>325080</v>
+        <v>52783</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" ref="J16:K16" si="7">+J14-J15</f>
-        <v>373469</v>
+        <v>57232</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="7"/>
-        <v>360733</v>
-      </c>
-      <c r="L16" s="8"/>
+        <v>56547</v>
+      </c>
+      <c r="L16" s="8">
+        <v>61280</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -1717,30 +1660,32 @@
     </row>
     <row r="17" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8">
-        <v>-205</v>
+        <v>17571</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8">
-        <v>-264</v>
+        <v>19248</v>
       </c>
       <c r="H17" s="8">
-        <v>-183</v>
+        <v>22238</v>
       </c>
       <c r="I17" s="8">
-        <v>-178</v>
+        <v>26295</v>
       </c>
       <c r="J17" s="8">
-        <v>-211</v>
+        <v>29108</v>
       </c>
       <c r="K17" s="8">
-        <v>-831</v>
-      </c>
-      <c r="L17" s="8"/>
+        <v>28639</v>
+      </c>
+      <c r="L17" s="8">
+        <v>23228</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -1781,45 +1726,32 @@
     </row>
     <row r="18" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" ref="C18:G18" si="8">+C16-C17</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="8">
-        <f t="shared" si="8"/>
-        <v>211000</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="8">
-        <f t="shared" si="8"/>
-        <v>225485</v>
+        <v>-130</v>
       </c>
       <c r="H18" s="8">
-        <f>+H16-H17</f>
-        <v>247845</v>
+        <v>-1273</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" ref="I18:K18" si="9">+I16-I17</f>
-        <v>325258</v>
+        <v>499</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="9"/>
-        <v>373680</v>
+        <v>-326</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="9"/>
-        <v>361564</v>
-      </c>
-      <c r="L18" s="8"/>
+        <v>-1128</v>
+      </c>
+      <c r="L18" s="8">
+        <v>562</v>
+      </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -1859,16 +1791,49 @@
       <c r="AW18" s="5"/>
     </row>
     <row r="19" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" ref="C19:G19" si="2">+C15-SUM(C16:C17)+C18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="2"/>
+        <v>228065</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>249018</v>
+      </c>
+      <c r="H19" s="8">
+        <f>+H15-SUM(H16:H17)+H18</f>
+        <v>286556</v>
+      </c>
+      <c r="I19" s="8">
+        <f>+I15-SUM(I16:I17)+I18</f>
+        <v>360766</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" ref="J19:L19" si="3">+J15-SUM(J16:J17)+J18</f>
+        <v>425713</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="3"/>
+        <v>407081</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="3"/>
+        <v>463423</v>
+      </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -1909,70 +1874,57 @@
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="3" t="e">
-        <f t="shared" ref="C20:D20" si="10">+C18/C21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="3" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="3">
-        <f>+E18/E21</f>
-        <v>8.1376065409387177</v>
-      </c>
-      <c r="F20" s="3" t="e">
-        <f t="shared" ref="F20:K20" si="11">+F18/F21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="11"/>
-        <v>8.6959120709602775</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="11"/>
-        <v>9.557865103544021</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="11"/>
-        <v>12.54466214131441</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="11"/>
-        <v>14.411662617146824</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="11"/>
-        <v>13.944386594160978</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
+        <v>1167</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <v>878</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1152</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1561</v>
+      </c>
+      <c r="J20" s="8">
+        <v>289</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1368</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1222</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
@@ -1988,55 +1940,57 @@
     </row>
     <row r="21" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
-        <v>25929</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5">
-        <v>25930</v>
-      </c>
-      <c r="H21" s="5">
-        <v>25931</v>
-      </c>
-      <c r="I21" s="5">
-        <v>25928</v>
-      </c>
-      <c r="J21" s="5">
-        <v>25929</v>
-      </c>
-      <c r="K21" s="5">
-        <v>25929</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
+        <v>12483</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
+        <v>16661</v>
+      </c>
+      <c r="H21" s="8">
+        <v>18341</v>
+      </c>
+      <c r="I21" s="8">
+        <v>19966</v>
+      </c>
+      <c r="J21" s="8">
+        <v>21750</v>
+      </c>
+      <c r="K21" s="8">
+        <v>22182</v>
+      </c>
+      <c r="L21" s="8">
+        <v>21501</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
       <c r="AN21" s="5"/>
@@ -2051,41 +2005,58 @@
       <c r="AW21" s="5"/>
     </row>
     <row r="22" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
+        <v>225</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
+        <v>-14</v>
+      </c>
+      <c r="H22" s="8">
+        <v>262</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1894</v>
+      </c>
+      <c r="J22" s="8">
+        <v>46</v>
+      </c>
+      <c r="K22" s="8">
+        <v>264</v>
+      </c>
+      <c r="L22" s="8">
+        <v>6890</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
       <c r="AN22" s="5"/>
@@ -2101,58 +2072,73 @@
     </row>
     <row r="23" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="10" t="e">
-        <f t="shared" ref="G23:J23" si="12">+G4/C4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="10" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" si="12"/>
-        <v>0.38951188239963574</v>
-      </c>
-      <c r="J23" s="10" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="10">
-        <f>+K4/G4-1</f>
-        <v>0.41611827673949286</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" ref="C23:G23" si="4">+C19+SUM(C20:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="4"/>
+        <v>241940</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="4"/>
+        <v>266543</v>
+      </c>
+      <c r="H23" s="8">
+        <f>+H19+SUM(H20:H22)</f>
+        <v>306311</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" ref="I23:L23" si="5">+I19+SUM(I20:I22)</f>
+        <v>384187</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="5"/>
+        <v>447798</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="5"/>
+        <v>430895</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="5"/>
+        <v>493036</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
       <c r="AN23" s="5"/>
@@ -2168,70 +2154,57 @@
     </row>
     <row r="24" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="7" t="e">
-        <f t="shared" ref="C24:H24" si="13">+C6/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="7">
-        <f t="shared" si="13"/>
-        <v>0.5425737974477487</v>
-      </c>
-      <c r="F24" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="13"/>
-        <v>0.53068115091015855</v>
-      </c>
-      <c r="H24" s="7">
-        <f t="shared" si="13"/>
-        <v>0.53172929874834818</v>
-      </c>
-      <c r="I24" s="7">
-        <f>+I6/I4</f>
-        <v>0.57831989806395223</v>
-      </c>
-      <c r="J24" s="7">
-        <f t="shared" ref="J24:K24" si="14">+J6/J4</f>
-        <v>0.58998504250622652</v>
-      </c>
-      <c r="K24" s="7">
-        <f t="shared" si="14"/>
-        <v>0.58789710862265776</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <v>31145</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <v>41322</v>
+      </c>
+      <c r="H24" s="8">
+        <v>58649</v>
+      </c>
+      <c r="I24" s="8">
+        <v>59107</v>
+      </c>
+      <c r="J24" s="8">
+        <v>74329</v>
+      </c>
+      <c r="K24" s="8">
+        <v>70162</v>
+      </c>
+      <c r="L24" s="8">
+        <v>95543</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
       <c r="AL24" s="5"/>
       <c r="AM24" s="5"/>
       <c r="AN24" s="5"/>
@@ -2247,70 +2220,73 @@
     </row>
     <row r="25" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="7" t="e">
-        <f t="shared" ref="C25:H25" si="15">+C10/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="7">
-        <f t="shared" si="15"/>
-        <v>0.41714145661593499</v>
-      </c>
-      <c r="F25" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="15"/>
-        <v>0.42018142426144534</v>
-      </c>
-      <c r="H25" s="7">
-        <f t="shared" si="15"/>
-        <v>0.42546658549984412</v>
-      </c>
-      <c r="I25" s="7">
-        <f>+I10/I4</f>
-        <v>0.47488455847896255</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" ref="J25:K25" si="16">+J10/J4</f>
-        <v>0.49019242084561082</v>
-      </c>
-      <c r="K25" s="7">
-        <f t="shared" si="16"/>
-        <v>0.48505100958708569</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" ref="C25:H25" si="6">+C23-C24</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="6"/>
+        <v>210795</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="6"/>
+        <v>225221</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="6"/>
+        <v>247662</v>
+      </c>
+      <c r="I25" s="8">
+        <f>+I23-I24</f>
+        <v>325080</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" ref="J25:L25" si="7">+J23-J24</f>
+        <v>373469</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="7"/>
+        <v>360733</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="7"/>
+        <v>397493</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
@@ -2326,70 +2302,57 @@
     </row>
     <row r="26" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="7" t="e">
-        <f t="shared" ref="C26:H26" si="17">+C15/C14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="7">
-        <f t="shared" si="17"/>
-        <v>0.12873026370174423</v>
-      </c>
-      <c r="F26" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" si="17"/>
-        <v>0.15502939488187648</v>
-      </c>
-      <c r="H26" s="7">
-        <f t="shared" si="17"/>
-        <v>0.19146880131630925</v>
-      </c>
-      <c r="I26" s="7">
-        <f>+I15/I14</f>
-        <v>0.15384955763729641</v>
-      </c>
-      <c r="J26" s="7">
-        <f t="shared" ref="J26:K26" si="18">+J15/J14</f>
-        <v>0.16598778913706627</v>
-      </c>
-      <c r="K26" s="7">
-        <f t="shared" si="18"/>
-        <v>0.16282853131273281</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <v>-205</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8">
+        <v>-264</v>
+      </c>
+      <c r="H26" s="8">
+        <v>-183</v>
+      </c>
+      <c r="I26" s="8">
+        <v>-178</v>
+      </c>
+      <c r="J26" s="8">
+        <v>-211</v>
+      </c>
+      <c r="K26" s="8">
+        <v>-831</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
@@ -2404,41 +2367,74 @@
       <c r="AW26" s="5"/>
     </row>
     <row r="27" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" ref="C27:G27" si="8">+C25-C26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="8"/>
+        <v>211000</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="8"/>
+        <v>225485</v>
+      </c>
+      <c r="H27" s="8">
+        <f>+H25-H26</f>
+        <v>247845</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" ref="I27:L27" si="9">+I25-I26</f>
+        <v>325258</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="9"/>
+        <v>373680</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="9"/>
+        <v>361564</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="9"/>
+        <v>397493</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
       <c r="AN27" s="5"/>
@@ -2453,41 +2449,41 @@
       <c r="AW27" s="5"/>
     </row>
     <row r="28" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
       <c r="AN28" s="5"/>
@@ -2502,16 +2498,49 @@
       <c r="AW28" s="5"/>
     </row>
     <row r="29" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="3" t="e">
+        <f t="shared" ref="C29:D29" si="10">+C27/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="3">
+        <f>+E27/E30</f>
+        <v>8.1376065409387177</v>
+      </c>
+      <c r="F29" s="3" t="e">
+        <f t="shared" ref="F29:L29" si="11">+F27/F30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="11"/>
+        <v>8.6959120709602775</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="11"/>
+        <v>9.557865103544021</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="11"/>
+        <v>12.54466214131441</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="11"/>
+        <v>14.411662617146824</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="11"/>
+        <v>13.944386594160978</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="11"/>
+        <v>15.330055150603572</v>
+      </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -2551,16 +2580,33 @@
       <c r="AW29" s="5"/>
     </row>
     <row r="30" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5">
+        <v>25929</v>
+      </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="G30" s="5">
+        <v>25930</v>
+      </c>
+      <c r="H30" s="5">
+        <v>25931</v>
+      </c>
+      <c r="I30" s="5">
+        <v>25928</v>
+      </c>
+      <c r="J30" s="5">
+        <v>25929</v>
+      </c>
+      <c r="K30" s="5">
+        <v>25929</v>
+      </c>
+      <c r="L30" s="5">
+        <v>25929</v>
+      </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2649,16 +2695,37 @@
       <c r="AW31" s="5"/>
     </row>
     <row r="32" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="G32" s="10" t="e">
+        <f t="shared" ref="G32:J32" si="12">+G13/C13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="12"/>
+        <v>0.38951188239963574</v>
+      </c>
+      <c r="J32" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="10">
+        <f>+K13/G13-1</f>
+        <v>0.41611827673949286</v>
+      </c>
+      <c r="L32" s="10">
+        <f>+L13/H13-1</f>
+        <v>0.386456028863714</v>
+      </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -2697,17 +2764,50 @@
       <c r="AV32" s="5"/>
       <c r="AW32" s="5"/>
     </row>
-    <row r="33" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+    <row r="33" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="7" t="e">
+        <f t="shared" ref="C33:H33" si="13">+C15/C13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="13"/>
+        <v>0.5425737974477487</v>
+      </c>
+      <c r="F33" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="13"/>
+        <v>0.53068115091015855</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="13"/>
+        <v>0.53172929874834818</v>
+      </c>
+      <c r="I33" s="7">
+        <f>+I15/I13</f>
+        <v>0.57831989806395223</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" ref="J33:K33" si="14">+J15/J13</f>
+        <v>0.58998504250622652</v>
+      </c>
+      <c r="K33" s="7">
+        <f t="shared" si="14"/>
+        <v>0.58789710862265776</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" ref="L33" si="15">+L15/L13</f>
+        <v>0.58617872074294919</v>
+      </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -2746,17 +2846,50 @@
       <c r="AV33" s="5"/>
       <c r="AW33" s="5"/>
     </row>
-    <row r="34" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+    <row r="34" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="7" t="e">
+        <f t="shared" ref="C34:H34" si="16">+C19/C13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="16"/>
+        <v>0.41714145661593499</v>
+      </c>
+      <c r="F34" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="16"/>
+        <v>0.42018142426144534</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="16"/>
+        <v>0.42546658549984412</v>
+      </c>
+      <c r="I34" s="7">
+        <f>+I19/I13</f>
+        <v>0.47488455847896255</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" ref="J34:K34" si="17">+J19/J13</f>
+        <v>0.49019242084561082</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="17"/>
+        <v>0.48505100958708569</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" ref="L34" si="18">+L19/L13</f>
+        <v>0.49628075631403995</v>
+      </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -2795,17 +2928,50 @@
       <c r="AV34" s="5"/>
       <c r="AW34" s="5"/>
     </row>
-    <row r="35" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+    <row r="35" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="7" t="e">
+        <f t="shared" ref="C35:H35" si="19">+C24/C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="19"/>
+        <v>0.12873026370174423</v>
+      </c>
+      <c r="F35" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="19"/>
+        <v>0.15502939488187648</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="19"/>
+        <v>0.19146880131630925</v>
+      </c>
+      <c r="I35" s="7">
+        <f>+I24/I23</f>
+        <v>0.15384955763729641</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" ref="J35:K35" si="20">+J24/J23</f>
+        <v>0.16598778913706627</v>
+      </c>
+      <c r="K35" s="7">
+        <f t="shared" si="20"/>
+        <v>0.16282853131273281</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" ref="L35" si="21">+L24/L23</f>
+        <v>0.19378503800939484</v>
+      </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -2844,7 +3010,7 @@
       <c r="AV35" s="5"/>
       <c r="AW35" s="5"/>
     </row>
-    <row r="36" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2893,7 +3059,7 @@
       <c r="AV36" s="5"/>
       <c r="AW36" s="5"/>
     </row>
-    <row r="37" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2942,7 +3108,7 @@
       <c r="AV37" s="5"/>
       <c r="AW37" s="5"/>
     </row>
-    <row r="38" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2991,7 +3157,7 @@
       <c r="AV38" s="5"/>
       <c r="AW38" s="5"/>
     </row>
-    <row r="39" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3040,7 +3206,7 @@
       <c r="AV39" s="5"/>
       <c r="AW39" s="5"/>
     </row>
-    <row r="40" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -3089,7 +3255,7 @@
       <c r="AV40" s="5"/>
       <c r="AW40" s="5"/>
     </row>
-    <row r="41" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -3138,7 +3304,7 @@
       <c r="AV41" s="5"/>
       <c r="AW41" s="5"/>
     </row>
-    <row r="42" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -3187,7 +3353,7 @@
       <c r="AV42" s="5"/>
       <c r="AW42" s="5"/>
     </row>
-    <row r="43" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3236,7 +3402,7 @@
       <c r="AV43" s="5"/>
       <c r="AW43" s="5"/>
     </row>
-    <row r="44" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -3285,7 +3451,7 @@
       <c r="AV44" s="5"/>
       <c r="AW44" s="5"/>
     </row>
-    <row r="45" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -3334,7 +3500,7 @@
       <c r="AV45" s="5"/>
       <c r="AW45" s="5"/>
     </row>
-    <row r="46" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -3383,7 +3549,7 @@
       <c r="AV46" s="5"/>
       <c r="AW46" s="5"/>
     </row>
-    <row r="47" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -3432,7 +3598,7 @@
       <c r="AV47" s="5"/>
       <c r="AW47" s="5"/>
     </row>
-    <row r="48" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -10390,6 +10556,447 @@
       <c r="AV189" s="5"/>
       <c r="AW189" s="5"/>
     </row>
+    <row r="190" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
+      <c r="O190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
+      <c r="R190" s="5"/>
+      <c r="S190" s="5"/>
+      <c r="T190" s="5"/>
+      <c r="U190" s="5"/>
+      <c r="V190" s="5"/>
+      <c r="W190" s="5"/>
+      <c r="X190" s="5"/>
+      <c r="Y190" s="5"/>
+      <c r="Z190" s="5"/>
+      <c r="AA190" s="5"/>
+      <c r="AB190" s="5"/>
+      <c r="AC190" s="5"/>
+      <c r="AD190" s="5"/>
+      <c r="AE190" s="5"/>
+      <c r="AF190" s="5"/>
+      <c r="AG190" s="5"/>
+      <c r="AH190" s="5"/>
+      <c r="AI190" s="5"/>
+      <c r="AJ190" s="5"/>
+      <c r="AK190" s="5"/>
+      <c r="AL190" s="5"/>
+      <c r="AM190" s="5"/>
+      <c r="AN190" s="5"/>
+      <c r="AO190" s="5"/>
+      <c r="AP190" s="5"/>
+      <c r="AQ190" s="5"/>
+      <c r="AR190" s="5"/>
+      <c r="AS190" s="5"/>
+      <c r="AT190" s="5"/>
+      <c r="AU190" s="5"/>
+      <c r="AV190" s="5"/>
+      <c r="AW190" s="5"/>
+    </row>
+    <row r="191" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="5"/>
+      <c r="T191" s="5"/>
+      <c r="U191" s="5"/>
+      <c r="V191" s="5"/>
+      <c r="W191" s="5"/>
+      <c r="X191" s="5"/>
+      <c r="Y191" s="5"/>
+      <c r="Z191" s="5"/>
+      <c r="AA191" s="5"/>
+      <c r="AB191" s="5"/>
+      <c r="AC191" s="5"/>
+      <c r="AD191" s="5"/>
+      <c r="AE191" s="5"/>
+      <c r="AF191" s="5"/>
+      <c r="AG191" s="5"/>
+      <c r="AH191" s="5"/>
+      <c r="AI191" s="5"/>
+      <c r="AJ191" s="5"/>
+      <c r="AK191" s="5"/>
+      <c r="AL191" s="5"/>
+      <c r="AM191" s="5"/>
+      <c r="AN191" s="5"/>
+      <c r="AO191" s="5"/>
+      <c r="AP191" s="5"/>
+      <c r="AQ191" s="5"/>
+      <c r="AR191" s="5"/>
+      <c r="AS191" s="5"/>
+      <c r="AT191" s="5"/>
+      <c r="AU191" s="5"/>
+      <c r="AV191" s="5"/>
+      <c r="AW191" s="5"/>
+    </row>
+    <row r="192" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5"/>
+      <c r="O192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
+      <c r="R192" s="5"/>
+      <c r="S192" s="5"/>
+      <c r="T192" s="5"/>
+      <c r="U192" s="5"/>
+      <c r="V192" s="5"/>
+      <c r="W192" s="5"/>
+      <c r="X192" s="5"/>
+      <c r="Y192" s="5"/>
+      <c r="Z192" s="5"/>
+      <c r="AA192" s="5"/>
+      <c r="AB192" s="5"/>
+      <c r="AC192" s="5"/>
+      <c r="AD192" s="5"/>
+      <c r="AE192" s="5"/>
+      <c r="AF192" s="5"/>
+      <c r="AG192" s="5"/>
+      <c r="AH192" s="5"/>
+      <c r="AI192" s="5"/>
+      <c r="AJ192" s="5"/>
+      <c r="AK192" s="5"/>
+      <c r="AL192" s="5"/>
+      <c r="AM192" s="5"/>
+      <c r="AN192" s="5"/>
+      <c r="AO192" s="5"/>
+      <c r="AP192" s="5"/>
+      <c r="AQ192" s="5"/>
+      <c r="AR192" s="5"/>
+      <c r="AS192" s="5"/>
+      <c r="AT192" s="5"/>
+      <c r="AU192" s="5"/>
+      <c r="AV192" s="5"/>
+      <c r="AW192" s="5"/>
+    </row>
+    <row r="193" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5"/>
+      <c r="M193" s="5"/>
+      <c r="N193" s="5"/>
+      <c r="O193" s="5"/>
+      <c r="P193" s="5"/>
+      <c r="Q193" s="5"/>
+      <c r="R193" s="5"/>
+      <c r="S193" s="5"/>
+      <c r="T193" s="5"/>
+      <c r="U193" s="5"/>
+      <c r="V193" s="5"/>
+      <c r="W193" s="5"/>
+      <c r="X193" s="5"/>
+      <c r="Y193" s="5"/>
+      <c r="Z193" s="5"/>
+      <c r="AA193" s="5"/>
+      <c r="AB193" s="5"/>
+      <c r="AC193" s="5"/>
+      <c r="AD193" s="5"/>
+      <c r="AE193" s="5"/>
+      <c r="AF193" s="5"/>
+      <c r="AG193" s="5"/>
+      <c r="AH193" s="5"/>
+      <c r="AI193" s="5"/>
+      <c r="AJ193" s="5"/>
+      <c r="AK193" s="5"/>
+      <c r="AL193" s="5"/>
+      <c r="AM193" s="5"/>
+      <c r="AN193" s="5"/>
+      <c r="AO193" s="5"/>
+      <c r="AP193" s="5"/>
+      <c r="AQ193" s="5"/>
+      <c r="AR193" s="5"/>
+      <c r="AS193" s="5"/>
+      <c r="AT193" s="5"/>
+      <c r="AU193" s="5"/>
+      <c r="AV193" s="5"/>
+      <c r="AW193" s="5"/>
+    </row>
+    <row r="194" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5"/>
+      <c r="O194" s="5"/>
+      <c r="P194" s="5"/>
+      <c r="Q194" s="5"/>
+      <c r="R194" s="5"/>
+      <c r="S194" s="5"/>
+      <c r="T194" s="5"/>
+      <c r="U194" s="5"/>
+      <c r="V194" s="5"/>
+      <c r="W194" s="5"/>
+      <c r="X194" s="5"/>
+      <c r="Y194" s="5"/>
+      <c r="Z194" s="5"/>
+      <c r="AA194" s="5"/>
+      <c r="AB194" s="5"/>
+      <c r="AC194" s="5"/>
+      <c r="AD194" s="5"/>
+      <c r="AE194" s="5"/>
+      <c r="AF194" s="5"/>
+      <c r="AG194" s="5"/>
+      <c r="AH194" s="5"/>
+      <c r="AI194" s="5"/>
+      <c r="AJ194" s="5"/>
+      <c r="AK194" s="5"/>
+      <c r="AL194" s="5"/>
+      <c r="AM194" s="5"/>
+      <c r="AN194" s="5"/>
+      <c r="AO194" s="5"/>
+      <c r="AP194" s="5"/>
+      <c r="AQ194" s="5"/>
+      <c r="AR194" s="5"/>
+      <c r="AS194" s="5"/>
+      <c r="AT194" s="5"/>
+      <c r="AU194" s="5"/>
+      <c r="AV194" s="5"/>
+      <c r="AW194" s="5"/>
+    </row>
+    <row r="195" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+      <c r="M195" s="5"/>
+      <c r="N195" s="5"/>
+      <c r="O195" s="5"/>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
+      <c r="R195" s="5"/>
+      <c r="S195" s="5"/>
+      <c r="T195" s="5"/>
+      <c r="U195" s="5"/>
+      <c r="V195" s="5"/>
+      <c r="W195" s="5"/>
+      <c r="X195" s="5"/>
+      <c r="Y195" s="5"/>
+      <c r="Z195" s="5"/>
+      <c r="AA195" s="5"/>
+      <c r="AB195" s="5"/>
+      <c r="AC195" s="5"/>
+      <c r="AD195" s="5"/>
+      <c r="AE195" s="5"/>
+      <c r="AF195" s="5"/>
+      <c r="AG195" s="5"/>
+      <c r="AH195" s="5"/>
+      <c r="AI195" s="5"/>
+      <c r="AJ195" s="5"/>
+      <c r="AK195" s="5"/>
+      <c r="AL195" s="5"/>
+      <c r="AM195" s="5"/>
+      <c r="AN195" s="5"/>
+      <c r="AO195" s="5"/>
+      <c r="AP195" s="5"/>
+      <c r="AQ195" s="5"/>
+      <c r="AR195" s="5"/>
+      <c r="AS195" s="5"/>
+      <c r="AT195" s="5"/>
+      <c r="AU195" s="5"/>
+      <c r="AV195" s="5"/>
+      <c r="AW195" s="5"/>
+    </row>
+    <row r="196" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="5"/>
+      <c r="O196" s="5"/>
+      <c r="P196" s="5"/>
+      <c r="Q196" s="5"/>
+      <c r="R196" s="5"/>
+      <c r="S196" s="5"/>
+      <c r="T196" s="5"/>
+      <c r="U196" s="5"/>
+      <c r="V196" s="5"/>
+      <c r="W196" s="5"/>
+      <c r="X196" s="5"/>
+      <c r="Y196" s="5"/>
+      <c r="Z196" s="5"/>
+      <c r="AA196" s="5"/>
+      <c r="AB196" s="5"/>
+      <c r="AC196" s="5"/>
+      <c r="AD196" s="5"/>
+      <c r="AE196" s="5"/>
+      <c r="AF196" s="5"/>
+      <c r="AG196" s="5"/>
+      <c r="AH196" s="5"/>
+      <c r="AI196" s="5"/>
+      <c r="AJ196" s="5"/>
+      <c r="AK196" s="5"/>
+      <c r="AL196" s="5"/>
+      <c r="AM196" s="5"/>
+      <c r="AN196" s="5"/>
+      <c r="AO196" s="5"/>
+      <c r="AP196" s="5"/>
+      <c r="AQ196" s="5"/>
+      <c r="AR196" s="5"/>
+      <c r="AS196" s="5"/>
+      <c r="AT196" s="5"/>
+      <c r="AU196" s="5"/>
+      <c r="AV196" s="5"/>
+      <c r="AW196" s="5"/>
+    </row>
+    <row r="197" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="5"/>
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="5"/>
+      <c r="T197" s="5"/>
+      <c r="U197" s="5"/>
+      <c r="V197" s="5"/>
+      <c r="W197" s="5"/>
+      <c r="X197" s="5"/>
+      <c r="Y197" s="5"/>
+      <c r="Z197" s="5"/>
+      <c r="AA197" s="5"/>
+      <c r="AB197" s="5"/>
+      <c r="AC197" s="5"/>
+      <c r="AD197" s="5"/>
+      <c r="AE197" s="5"/>
+      <c r="AF197" s="5"/>
+      <c r="AG197" s="5"/>
+      <c r="AH197" s="5"/>
+      <c r="AI197" s="5"/>
+      <c r="AJ197" s="5"/>
+      <c r="AK197" s="5"/>
+      <c r="AL197" s="5"/>
+      <c r="AM197" s="5"/>
+      <c r="AN197" s="5"/>
+      <c r="AO197" s="5"/>
+      <c r="AP197" s="5"/>
+      <c r="AQ197" s="5"/>
+      <c r="AR197" s="5"/>
+      <c r="AS197" s="5"/>
+      <c r="AT197" s="5"/>
+      <c r="AU197" s="5"/>
+      <c r="AV197" s="5"/>
+      <c r="AW197" s="5"/>
+    </row>
+    <row r="198" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5"/>
+      <c r="M198" s="5"/>
+      <c r="N198" s="5"/>
+      <c r="O198" s="5"/>
+      <c r="P198" s="5"/>
+      <c r="Q198" s="5"/>
+      <c r="R198" s="5"/>
+      <c r="S198" s="5"/>
+      <c r="T198" s="5"/>
+      <c r="U198" s="5"/>
+      <c r="V198" s="5"/>
+      <c r="W198" s="5"/>
+      <c r="X198" s="5"/>
+      <c r="Y198" s="5"/>
+      <c r="Z198" s="5"/>
+      <c r="AA198" s="5"/>
+      <c r="AB198" s="5"/>
+      <c r="AC198" s="5"/>
+      <c r="AD198" s="5"/>
+      <c r="AE198" s="5"/>
+      <c r="AF198" s="5"/>
+      <c r="AG198" s="5"/>
+      <c r="AH198" s="5"/>
+      <c r="AI198" s="5"/>
+      <c r="AJ198" s="5"/>
+      <c r="AK198" s="5"/>
+      <c r="AL198" s="5"/>
+      <c r="AM198" s="5"/>
+      <c r="AN198" s="5"/>
+      <c r="AO198" s="5"/>
+      <c r="AP198" s="5"/>
+      <c r="AQ198" s="5"/>
+      <c r="AR198" s="5"/>
+      <c r="AS198" s="5"/>
+      <c r="AT198" s="5"/>
+      <c r="AU198" s="5"/>
+      <c r="AV198" s="5"/>
+      <c r="AW198" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0C8241C6-0EFE-43C8-8BF5-BDBE8F4D8D90}"/>

--- a/TSM.xlsx
+++ b/TSM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8239C71-1E03-44BE-93EA-7C7AC4C14DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE9583-045A-43B8-8B68-080CF4D2FBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{D45F948B-0237-4CD1-A538-BE8EB16D26F7}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{D45F948B-0237-4CD1-A538-BE8EB16D26F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>TSMC</t>
-  </si>
-  <si>
-    <t>TSM</t>
   </si>
   <si>
     <t>IR</t>
@@ -221,6 +218,9 @@
   <si>
     <t>DCE</t>
   </si>
+  <si>
+    <t>2330.TW</t>
+  </si>
 </sst>
 </file>
 
@@ -230,13 +230,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -301,28 +307,29 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -662,7 +669,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -680,87 +687,87 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3">
-        <v>1130</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="4">
         <v>25929</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
+      <c r="B4" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4">
         <f>+H2*H3</f>
-        <v>29299770</v>
+        <v>32540895</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4">
         <f>2364524+269905</f>
         <v>2634429</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="4">
         <f>94214+848535</f>
         <v>942749</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="4">
         <f>+H4-H5+H6</f>
-        <v>27608090</v>
+        <v>30849215</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -776,10 +783,10 @@
   <dimension ref="A1:AW198"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -791,71 +798,71 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -909,7 +916,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -963,7 +970,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1017,7 +1024,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1071,7 +1078,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1125,7 +1132,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1179,7 +1186,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1233,7 +1240,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1287,7 +1294,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1341,7 +1348,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1395,7 +1402,7 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1461,7 +1468,7 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1527,7 +1534,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" ref="C15:H15" si="0">+C13-C14</f>
@@ -1609,7 +1616,7 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1675,7 +1682,7 @@
     </row>
     <row r="17" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1741,7 +1748,7 @@
     </row>
     <row r="18" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1807,7 +1814,7 @@
     </row>
     <row r="19" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" ref="C19:G19" si="2">+C15-SUM(C16:C17)+C18</f>
@@ -1889,7 +1896,7 @@
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1955,7 +1962,7 @@
     </row>
     <row r="21" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2021,7 +2028,7 @@
     </row>
     <row r="22" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2087,7 +2094,7 @@
     </row>
     <row r="23" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" ref="C23:G23" si="4">+C19+SUM(C20:C22)</f>
@@ -2169,7 +2176,7 @@
     </row>
     <row r="24" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2235,7 +2242,7 @@
     </row>
     <row r="25" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="8">
         <f t="shared" ref="C25:H25" si="6">+C23-C24</f>
@@ -2317,7 +2324,7 @@
     </row>
     <row r="26" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2383,7 +2390,7 @@
     </row>
     <row r="27" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="8">
         <f t="shared" ref="C27:G27" si="8">+C25-C26</f>
@@ -2514,7 +2521,7 @@
     </row>
     <row r="29" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="11" t="e">
         <f t="shared" ref="C29:D29" si="10">+C27/C30</f>
@@ -2596,7 +2603,7 @@
     </row>
     <row r="30" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2711,7 +2718,7 @@
     </row>
     <row r="32" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2781,7 +2788,7 @@
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="13" t="e">
         <f t="shared" ref="C33:H33" si="13">+C15/C13</f>
@@ -2863,7 +2870,7 @@
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="13" t="e">
         <f t="shared" ref="C34:H34" si="16">+C19/C13</f>
@@ -2945,7 +2952,7 @@
     </row>
     <row r="35" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="13" t="e">
         <f t="shared" ref="C35:H35" si="19">+C24/C23</f>

--- a/TSM.xlsx
+++ b/TSM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE9583-045A-43B8-8B68-080CF4D2FBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA7054-A1C2-437D-AA63-E346C4771564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{D45F948B-0237-4CD1-A538-BE8EB16D26F7}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D45F948B-0237-4CD1-A538-BE8EB16D26F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -230,13 +230,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -307,29 +313,32 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -669,7 +678,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -693,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="3">
-        <v>1255</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -701,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="4">
-        <v>25929</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>38</v>
+        <v>25930</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -716,7 +725,7 @@
       </c>
       <c r="H4" s="4">
         <f>+H2*H3</f>
-        <v>32540895</v>
+        <v>37857800</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -727,11 +736,11 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <f>2364524+269905</f>
-        <v>2634429</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>38</v>
+        <f>2470759+280297</f>
+        <v>2751056</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -739,11 +748,11 @@
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <f>94214+848535</f>
-        <v>942749</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>38</v>
+        <f>880433+76226</f>
+        <v>956659</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -752,7 +761,7 @@
       </c>
       <c r="H7" s="4">
         <f>+H4-H5+H6</f>
-        <v>30849215</v>
+        <v>36063403</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -783,10 +792,10 @@
   <dimension ref="A1:AW198"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -870,13 +879,19 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="8">
+        <f>20%*I13</f>
+        <v>151938.4</v>
+      </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8">
         <v>224110.07999999999</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="8">
+        <f>23%*M13</f>
+        <v>227681.14</v>
+      </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -924,13 +939,19 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="I4" s="8">
+        <f>32%*I13</f>
+        <v>243101.44</v>
+      </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8">
         <v>336165.12</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="8">
+        <f>37%*M13</f>
+        <v>366269.66</v>
+      </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -978,13 +999,19 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="8">
+        <f>17%*I13</f>
+        <v>129147.64000000001</v>
+      </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8">
         <v>130730.88000000002</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="8">
+        <f>14%*M13</f>
+        <v>138588.52000000002</v>
+      </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
@@ -1032,13 +1059,19 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8">
+        <f>+I13-SUM(I3:I5)</f>
+        <v>235504.52000000002</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8">
         <v>242785.92000000004</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="8">
+        <f>+M13-SUM(M3:M5)</f>
+        <v>257378.67999999993</v>
+      </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -1086,13 +1119,19 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8">
+        <f>51%*I13</f>
+        <v>387442.92</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8">
         <v>560275.19999999995</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="8">
+        <f>57%*M13</f>
+        <v>564253.26</v>
+      </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -1140,13 +1179,19 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8">
+        <f>34%*I13</f>
+        <v>258295.28000000003</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8">
         <v>252123.84000000003</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="8">
+        <f>30%*M13</f>
+        <v>296975.39999999997</v>
+      </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -1194,13 +1239,19 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="8">
+        <f>7%*I13</f>
+        <v>53178.44</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8">
         <v>46689.600000000006</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="8">
+        <f>5%*M13</f>
+        <v>49495.9</v>
+      </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -1248,13 +1299,19 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8">
+        <f>5%*I13</f>
+        <v>37984.6</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8">
         <v>46689.600000000006</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="M10" s="8">
+        <f>5%*M13</f>
+        <v>49495.9</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -1302,13 +1359,19 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8">
+        <f>1%*I13</f>
+        <v>7596.92</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8">
         <v>9337.92</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="8">
+        <f>1%*M13</f>
+        <v>9899.18</v>
+      </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -1356,13 +1419,19 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="8">
+        <f>2%*I13</f>
+        <v>15193.84</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8">
         <v>18675.84</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="8">
+        <f>2%*M13</f>
+        <v>19798.36</v>
+      </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -1428,7 +1497,9 @@
       <c r="L13" s="10">
         <v>933792</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="10">
+        <v>989918</v>
+      </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -1494,7 +1565,9 @@
       <c r="L14" s="8">
         <v>386423</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="8">
+        <v>401375</v>
+      </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -1565,7 +1638,7 @@
         <v>439345</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" ref="J15:L15" si="1">+J13-J14</f>
+        <f t="shared" ref="J15:M15" si="1">+J13-J14</f>
         <v>512379</v>
       </c>
       <c r="K15" s="8">
@@ -1576,7 +1649,10 @@
         <f t="shared" si="1"/>
         <v>547369</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="8">
+        <f t="shared" si="1"/>
+        <v>588543</v>
+      </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -1642,7 +1718,9 @@
       <c r="L16" s="8">
         <v>61280</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="8">
+        <v>63743</v>
+      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -1708,7 +1786,9 @@
       <c r="L17" s="8">
         <v>23228</v>
       </c>
-      <c r="M17" s="8"/>
+      <c r="M17" s="8">
+        <v>24022</v>
+      </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -1774,7 +1854,9 @@
       <c r="L18" s="8">
         <v>562</v>
       </c>
-      <c r="M18" s="8"/>
+      <c r="M18" s="8">
+        <v>-93</v>
+      </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -1845,7 +1927,7 @@
         <v>360766</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" ref="J19:L19" si="3">+J15-SUM(J16:J17)+J18</f>
+        <f t="shared" ref="J19:M19" si="3">+J15-SUM(J16:J17)+J18</f>
         <v>425713</v>
       </c>
       <c r="K19" s="8">
@@ -1856,7 +1938,10 @@
         <f t="shared" si="3"/>
         <v>463423</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="8">
+        <f t="shared" si="3"/>
+        <v>500685</v>
+      </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -1922,7 +2007,9 @@
       <c r="L20" s="8">
         <v>1222</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="8">
+        <v>1424</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -1988,7 +2075,9 @@
       <c r="L21" s="8">
         <v>21501</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="8">
+        <v>23222</v>
+      </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -2054,7 +2143,9 @@
       <c r="L22" s="8">
         <v>6890</v>
       </c>
-      <c r="M22" s="8"/>
+      <c r="M22" s="8">
+        <v>39</v>
+      </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -2121,7 +2212,7 @@
         <v>306311</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" ref="I23:L23" si="5">+I19+SUM(I20:I22)</f>
+        <f t="shared" ref="I23:M23" si="5">+I19+SUM(I20:I22)</f>
         <v>384187</v>
       </c>
       <c r="J23" s="8">
@@ -2136,7 +2227,10 @@
         <f t="shared" si="5"/>
         <v>493036</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="8">
+        <f>+M19+M20+M21+M22</f>
+        <v>525370</v>
+      </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
@@ -2202,7 +2296,9 @@
       <c r="L24" s="8">
         <v>95543</v>
       </c>
-      <c r="M24" s="8"/>
+      <c r="M24" s="8">
+        <v>73614</v>
+      </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
@@ -2273,7 +2369,7 @@
         <v>325080</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25:L25" si="7">+J23-J24</f>
+        <f t="shared" ref="J25:M25" si="7">+J23-J24</f>
         <v>373469</v>
       </c>
       <c r="K25" s="8">
@@ -2284,7 +2380,10 @@
         <f t="shared" si="7"/>
         <v>397493</v>
       </c>
-      <c r="M25" s="8"/>
+      <c r="M25" s="8">
+        <f t="shared" si="7"/>
+        <v>451756</v>
+      </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
@@ -2350,7 +2449,9 @@
       <c r="L26" s="8">
         <v>0</v>
       </c>
-      <c r="M26" s="8"/>
+      <c r="M26" s="8">
+        <v>-547</v>
+      </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -2417,7 +2518,7 @@
         <v>247845</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" ref="I27:L27" si="9">+I25-I26</f>
+        <f t="shared" ref="I27:M27" si="9">+I25-I26</f>
         <v>325258</v>
       </c>
       <c r="J27" s="8">
@@ -2432,7 +2533,10 @@
         <f t="shared" si="9"/>
         <v>397493</v>
       </c>
-      <c r="M27" s="8"/>
+      <c r="M27" s="8">
+        <f t="shared" si="9"/>
+        <v>452303</v>
+      </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
@@ -2536,7 +2640,7 @@
         <v>8.1376065409387177</v>
       </c>
       <c r="F29" s="11" t="e">
-        <f t="shared" ref="F29:L29" si="11">+F27/F30</f>
+        <f t="shared" ref="F29:M29" si="11">+F27/F30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="11">
@@ -2563,7 +2667,10 @@
         <f t="shared" si="11"/>
         <v>15.330055150603572</v>
       </c>
-      <c r="M29" s="4"/>
+      <c r="M29" s="11">
+        <f t="shared" si="11"/>
+        <v>17.443231777863478</v>
+      </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -2629,7 +2736,9 @@
       <c r="L30" s="4">
         <v>25929</v>
       </c>
-      <c r="M30" s="4"/>
+      <c r="M30" s="4">
+        <v>25930</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -2748,7 +2857,10 @@
         <f>+L13/H13-1</f>
         <v>0.386456028863714</v>
       </c>
-      <c r="M32" s="4"/>
+      <c r="M32" s="12">
+        <f>+M13/I13-1</f>
+        <v>0.30305176308293369</v>
+      </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -2827,10 +2939,13 @@
         <v>0.58789710862265776</v>
       </c>
       <c r="L33" s="13">
-        <f t="shared" ref="L33" si="15">+L15/L13</f>
+        <f t="shared" ref="L33:M33" si="15">+L15/L13</f>
         <v>0.58617872074294919</v>
       </c>
-      <c r="M33" s="4"/>
+      <c r="M33" s="13">
+        <f t="shared" si="15"/>
+        <v>0.59453712327687747</v>
+      </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -2909,10 +3024,13 @@
         <v>0.48505100958708569</v>
       </c>
       <c r="L34" s="13">
-        <f t="shared" ref="L34" si="18">+L19/L13</f>
+        <f t="shared" ref="L34:M34" si="18">+L19/L13</f>
         <v>0.49628075631403995</v>
       </c>
-      <c r="M34" s="4"/>
+      <c r="M34" s="13">
+        <f t="shared" si="18"/>
+        <v>0.50578431748892327</v>
+      </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -2991,10 +3109,13 @@
         <v>0.16282853131273281</v>
       </c>
       <c r="L35" s="13">
-        <f t="shared" ref="L35" si="21">+L24/L23</f>
+        <f t="shared" ref="L35:M35" si="21">+L24/L23</f>
         <v>0.19378503800939484</v>
       </c>
-      <c r="M35" s="4"/>
+      <c r="M35" s="13">
+        <f t="shared" si="21"/>
+        <v>0.14011839275177493</v>
+      </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>

--- a/TSM.xlsx
+++ b/TSM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA7054-A1C2-437D-AA63-E346C4771564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4529A9-FB22-4644-A7C6-C96BC73D91D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D45F948B-0237-4CD1-A538-BE8EB16D26F7}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{D45F948B-0237-4CD1-A538-BE8EB16D26F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5707962-9660-4B8C-96C2-5E923C455073}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="3">
-        <v>1460</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -710,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="4">
-        <v>25930</v>
+        <v>25931</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -725,7 +725,7 @@
       </c>
       <c r="H4" s="4">
         <f>+H2*H3</f>
-        <v>37857800</v>
+        <v>45119940</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -736,11 +736,11 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <f>2470759+280297</f>
-        <v>2751056</v>
+        <f>2767856+300738</f>
+        <v>3068594</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -748,11 +748,11 @@
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <f>880433+76226</f>
-        <v>956659</v>
+        <f>136926+856228</f>
+        <v>993154</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -761,7 +761,7 @@
       </c>
       <c r="H7" s="4">
         <f>+H4-H5+H6</f>
-        <v>36063403</v>
+        <v>43044500</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -791,18 +791,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6249646-B538-4C8E-8557-B9FADF837D81}">
   <dimension ref="A1:AW198"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.2">
@@ -883,7 +885,10 @@
         <f>20%*I13</f>
         <v>151938.4</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8">
+        <f>26%*J13</f>
+        <v>225799.86000000002</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8">
         <v>224110.07999999999</v>
@@ -892,7 +897,10 @@
         <f>23%*M13</f>
         <v>227681.14</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="N3" s="8">
+        <f>28%*N13</f>
+        <v>292905.2</v>
+      </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -943,7 +951,10 @@
         <f>32%*I13</f>
         <v>243101.44</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8">
+        <f>34%*J13</f>
+        <v>295276.74000000005</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8">
         <v>336165.12</v>
@@ -952,7 +963,10 @@
         <f>37%*M13</f>
         <v>366269.66</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" s="8">
+        <f>35%*N13</f>
+        <v>366131.5</v>
+      </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -1003,7 +1017,10 @@
         <f>17%*I13</f>
         <v>129147.64000000001</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8">
+        <f>14%*J13</f>
+        <v>121584.54000000001</v>
+      </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8">
         <v>130730.88000000002</v>
@@ -1012,7 +1029,10 @@
         <f>14%*M13</f>
         <v>138588.52000000002</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="N5" s="8">
+        <f>14%*N13</f>
+        <v>146452.6</v>
+      </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -1063,7 +1083,10 @@
         <f>+I13-SUM(I3:I5)</f>
         <v>235504.52000000002</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <f>+J13-SUM(J3:J5)</f>
+        <v>225799.85999999987</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8">
         <v>242785.92000000004</v>
@@ -1072,7 +1095,10 @@
         <f>+M13-SUM(M3:M5)</f>
         <v>257378.67999999993</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="8">
+        <f>+N13-SUM(N3:N5)</f>
+        <v>240600.70000000007</v>
+      </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -1123,7 +1149,10 @@
         <f>51%*I13</f>
         <v>387442.92</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8">
+        <f>53%*J13</f>
+        <v>460284.33</v>
+      </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8">
         <v>560275.19999999995</v>
@@ -1132,7 +1161,10 @@
         <f>57%*M13</f>
         <v>564253.26</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="8">
+        <f>55%*N13</f>
+        <v>575349.5</v>
+      </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -1183,7 +1215,10 @@
         <f>34%*I13</f>
         <v>258295.28000000003</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8">
+        <f>35%*J13</f>
+        <v>303961.34999999998</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8">
         <v>252123.84000000003</v>
@@ -1192,7 +1227,10 @@
         <f>30%*M13</f>
         <v>296975.39999999997</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="8">
+        <f>32%*N13</f>
+        <v>334748.79999999999</v>
+      </c>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
@@ -1243,7 +1281,10 @@
         <f>7%*I13</f>
         <v>53178.44</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8">
+        <f>5%*J13</f>
+        <v>43423.05</v>
+      </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8">
         <v>46689.600000000006</v>
@@ -1252,7 +1293,10 @@
         <f>5%*M13</f>
         <v>49495.9</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="8">
+        <f>5%*N13</f>
+        <v>52304.5</v>
+      </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -1303,7 +1347,10 @@
         <f>5%*I13</f>
         <v>37984.6</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8">
+        <f>4%*J13</f>
+        <v>34738.44</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8">
         <v>46689.600000000006</v>
@@ -1312,7 +1359,10 @@
         <f>5%*M13</f>
         <v>49495.9</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="8">
+        <f>5%*N13</f>
+        <v>52304.5</v>
+      </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
@@ -1363,7 +1413,10 @@
         <f>1%*I13</f>
         <v>7596.92</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8">
+        <f>1%*J13</f>
+        <v>8684.61</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8">
         <v>9337.92</v>
@@ -1372,7 +1425,10 @@
         <f>1%*M13</f>
         <v>9899.18</v>
       </c>
-      <c r="N11" s="8"/>
+      <c r="N11" s="8">
+        <f>1%*N13</f>
+        <v>10460.9</v>
+      </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
@@ -1423,7 +1479,10 @@
         <f>2%*I13</f>
         <v>15193.84</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8">
+        <f>2%*J13</f>
+        <v>17369.22</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8">
         <v>18675.84</v>
@@ -1432,7 +1491,10 @@
         <f>2%*M13</f>
         <v>19798.36</v>
       </c>
-      <c r="N12" s="8"/>
+      <c r="N12" s="8">
+        <f>2%*N13</f>
+        <v>20921.8</v>
+      </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -1500,7 +1562,9 @@
       <c r="M13" s="10">
         <v>989918</v>
       </c>
-      <c r="N13" s="8"/>
+      <c r="N13" s="10">
+        <v>1046090</v>
+      </c>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -1568,7 +1632,9 @@
       <c r="M14" s="8">
         <v>401375</v>
       </c>
-      <c r="N14" s="8"/>
+      <c r="N14" s="8">
+        <v>394103</v>
+      </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
@@ -1638,7 +1704,7 @@
         <v>439345</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" ref="J15:M15" si="1">+J13-J14</f>
+        <f t="shared" ref="J15:N15" si="1">+J13-J14</f>
         <v>512379</v>
       </c>
       <c r="K15" s="8">
@@ -1653,7 +1719,10 @@
         <f t="shared" si="1"/>
         <v>588543</v>
       </c>
-      <c r="N15" s="8"/>
+      <c r="N15" s="8">
+        <f t="shared" si="1"/>
+        <v>651987</v>
+      </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
@@ -1721,7 +1790,9 @@
       <c r="M16" s="8">
         <v>63743</v>
       </c>
-      <c r="N16" s="8"/>
+      <c r="N16" s="8">
+        <v>64857</v>
+      </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -1789,7 +1860,9 @@
       <c r="M17" s="8">
         <v>24022</v>
       </c>
-      <c r="N17" s="8"/>
+      <c r="N17" s="8">
+        <v>23333</v>
+      </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
@@ -1857,7 +1930,9 @@
       <c r="M18" s="8">
         <v>-93</v>
       </c>
-      <c r="N18" s="8"/>
+      <c r="N18" s="8">
+        <v>1106</v>
+      </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
@@ -1927,7 +2002,7 @@
         <v>360766</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" ref="J19:M19" si="3">+J15-SUM(J16:J17)+J18</f>
+        <f t="shared" ref="J19:N19" si="3">+J15-SUM(J16:J17)+J18</f>
         <v>425713</v>
       </c>
       <c r="K19" s="8">
@@ -1942,7 +2017,10 @@
         <f t="shared" si="3"/>
         <v>500685</v>
       </c>
-      <c r="N19" s="8"/>
+      <c r="N19" s="8">
+        <f t="shared" si="3"/>
+        <v>564903</v>
+      </c>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
@@ -2010,7 +2088,9 @@
       <c r="M20" s="8">
         <v>1424</v>
       </c>
-      <c r="N20" s="8"/>
+      <c r="N20" s="8">
+        <v>1483</v>
+      </c>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
@@ -2078,7 +2158,9 @@
       <c r="M21" s="8">
         <v>23222</v>
       </c>
-      <c r="N21" s="8"/>
+      <c r="N21" s="8">
+        <v>26463</v>
+      </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
@@ -2146,7 +2228,9 @@
       <c r="M22" s="8">
         <v>39</v>
       </c>
-      <c r="N22" s="8"/>
+      <c r="N22" s="8">
+        <v>-486</v>
+      </c>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
@@ -2212,7 +2296,7 @@
         <v>306311</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" ref="I23:M23" si="5">+I19+SUM(I20:I22)</f>
+        <f t="shared" ref="I23:N23" si="5">+I19+SUM(I20:I22)</f>
         <v>384187</v>
       </c>
       <c r="J23" s="8">
@@ -2228,10 +2312,13 @@
         <v>493036</v>
       </c>
       <c r="M23" s="8">
-        <f>+M19+M20+M21+M22</f>
+        <f t="shared" si="5"/>
         <v>525370</v>
       </c>
-      <c r="N23" s="8"/>
+      <c r="N23" s="8">
+        <f t="shared" si="5"/>
+        <v>592363</v>
+      </c>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
@@ -2299,7 +2386,9 @@
       <c r="M24" s="8">
         <v>73614</v>
       </c>
-      <c r="N24" s="8"/>
+      <c r="N24" s="8">
+        <v>86947</v>
+      </c>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -2369,7 +2458,7 @@
         <v>325080</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25:M25" si="7">+J23-J24</f>
+        <f t="shared" ref="J25:N25" si="7">+J23-J24</f>
         <v>373469</v>
       </c>
       <c r="K25" s="8">
@@ -2384,7 +2473,10 @@
         <f t="shared" si="7"/>
         <v>451756</v>
       </c>
-      <c r="N25" s="8"/>
+      <c r="N25" s="8">
+        <f t="shared" si="7"/>
+        <v>505416</v>
+      </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
@@ -2452,7 +2544,9 @@
       <c r="M26" s="8">
         <v>-547</v>
       </c>
-      <c r="N26" s="8"/>
+      <c r="N26" s="8">
+        <v>-328</v>
+      </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
@@ -2518,7 +2612,7 @@
         <v>247845</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" ref="I27:M27" si="9">+I25-I26</f>
+        <f t="shared" ref="I27:N27" si="9">+I25-I26</f>
         <v>325258</v>
       </c>
       <c r="J27" s="8">
@@ -2537,7 +2631,10 @@
         <f t="shared" si="9"/>
         <v>452303</v>
       </c>
-      <c r="N27" s="8"/>
+      <c r="N27" s="8">
+        <f t="shared" si="9"/>
+        <v>505744</v>
+      </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
@@ -2640,7 +2737,7 @@
         <v>8.1376065409387177</v>
       </c>
       <c r="F29" s="11" t="e">
-        <f t="shared" ref="F29:M29" si="11">+F27/F30</f>
+        <f t="shared" ref="F29:N29" si="11">+F27/F30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="11">
@@ -2671,7 +2768,10 @@
         <f t="shared" si="11"/>
         <v>17.443231777863478</v>
       </c>
-      <c r="N29" s="4"/>
+      <c r="N29" s="11">
+        <f t="shared" si="11"/>
+        <v>19.503451467355674</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -2739,7 +2839,9 @@
       <c r="M30" s="4">
         <v>25930</v>
       </c>
-      <c r="N30" s="4"/>
+      <c r="N30" s="4">
+        <v>25931</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -2861,7 +2963,10 @@
         <f>+M13/I13-1</f>
         <v>0.30305176308293369</v>
       </c>
-      <c r="N32" s="4"/>
+      <c r="N32" s="12">
+        <f>+N13/J13-1</f>
+        <v>0.20453307632697371</v>
+      </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -2946,7 +3051,10 @@
         <f t="shared" si="15"/>
         <v>0.59453712327687747</v>
       </c>
-      <c r="N33" s="4"/>
+      <c r="N33" s="13">
+        <f t="shared" ref="N33" si="16">+N15/N13</f>
+        <v>0.62326090489346042</v>
+      </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -2988,27 +3096,27 @@
         <v>35</v>
       </c>
       <c r="C34" s="13" t="e">
-        <f t="shared" ref="C34:H34" si="16">+C19/C13</f>
+        <f t="shared" ref="C34:H34" si="17">+C19/C13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D34" s="13" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.41714145661593499</v>
       </c>
       <c r="F34" s="13" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.42018142426144534</v>
       </c>
       <c r="H34" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.42546658549984412</v>
       </c>
       <c r="I34" s="13">
@@ -3016,22 +3124,25 @@
         <v>0.47488455847896255</v>
       </c>
       <c r="J34" s="13">
-        <f t="shared" ref="J34:K34" si="17">+J19/J13</f>
+        <f t="shared" ref="J34:K34" si="18">+J19/J13</f>
         <v>0.49019242084561082</v>
       </c>
       <c r="K34" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.48505100958708569</v>
       </c>
       <c r="L34" s="13">
-        <f t="shared" ref="L34:M34" si="18">+L19/L13</f>
+        <f t="shared" ref="L34:M34" si="19">+L19/L13</f>
         <v>0.49628075631403995</v>
       </c>
       <c r="M34" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.50578431748892327</v>
       </c>
-      <c r="N34" s="4"/>
+      <c r="N34" s="13">
+        <f t="shared" ref="N34" si="20">+N19/N13</f>
+        <v>0.54001376554598557</v>
+      </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -3073,27 +3184,27 @@
         <v>36</v>
       </c>
       <c r="C35" s="13" t="e">
-        <f t="shared" ref="C35:H35" si="19">+C24/C23</f>
+        <f t="shared" ref="C35:H35" si="21">+C24/C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="13" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.12873026370174423</v>
       </c>
       <c r="F35" s="13" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.15502939488187648</v>
       </c>
       <c r="H35" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.19146880131630925</v>
       </c>
       <c r="I35" s="13">
@@ -3101,22 +3212,25 @@
         <v>0.15384955763729641</v>
       </c>
       <c r="J35" s="13">
-        <f t="shared" ref="J35:K35" si="20">+J24/J23</f>
+        <f t="shared" ref="J35:K35" si="22">+J24/J23</f>
         <v>0.16598778913706627</v>
       </c>
       <c r="K35" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.16282853131273281</v>
       </c>
       <c r="L35" s="13">
-        <f t="shared" ref="L35:M35" si="21">+L24/L23</f>
+        <f t="shared" ref="L35:M35" si="23">+L24/L23</f>
         <v>0.19378503800939484</v>
       </c>
       <c r="M35" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.14011839275177493</v>
       </c>
-      <c r="N35" s="4"/>
+      <c r="N35" s="13">
+        <f t="shared" ref="N35" si="24">+N24/N23</f>
+        <v>0.14677993054934221</v>
+      </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
